--- a/projects/pso/Character_stats.xlsx
+++ b/projects/pso/Character_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johndellarosa/Github/johndellarosa.github.io/projects/pso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD205AA-1025-B342-A8DA-A8E8746F5CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ADFD14-C40B-304D-821C-6FF261FB413F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="9" xr2:uid="{CA04B84E-C282-034C-9F7E-715E07C7C6DA}"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="11" xr2:uid="{CA04B84E-C282-034C-9F7E-715E07C7C6DA}"/>
   </bookViews>
   <sheets>
     <sheet name="HUmar" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="9">
   <si>
     <t>HP</t>
   </si>
@@ -6528,7 +6528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865FF428-6616-314A-A8EA-B456D00A8BB7}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -18234,8 +18234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6656FAA-475A-154E-A7E8-BD96AE1BCE44}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18250,6 +18250,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
